--- a/SVX_Boost2X_Spleen_Day30_cfu_numbers.xlsx
+++ b/SVX_Boost2X_Spleen_Day30_cfu_numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE569E-0462-2644-9113-0073DB2638D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1511A1FD-C92A-1845-92BC-F3B4C32E42F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21600" xr2:uid="{F188F32F-936C-7746-94B2-81166A817508}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21600" activeTab="1" xr2:uid="{F188F32F-936C-7746-94B2-81166A817508}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="46">
   <si>
     <t>organ</t>
   </si>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23819670-BA7B-8147-B70E-EE83F7324325}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3A77B-4590-134A-A014-90988A8C556F}">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:P41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -701,7 +701,9 @@
       <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J2" s="2">
         <v>10</v>
       </c>
@@ -749,7 +751,9 @@
       <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J3" s="2">
         <v>60</v>
       </c>
@@ -797,7 +801,9 @@
       <c r="H4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="2">
         <v>34</v>
       </c>
@@ -1891,7 +1897,9 @@
       <c r="H26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J26" s="2">
         <v>17</v>
       </c>

--- a/SVX_Boost2X_Spleen_Day30_cfu_numbers.xlsx
+++ b/SVX_Boost2X_Spleen_Day30_cfu_numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1511A1FD-C92A-1845-92BC-F3B4C32E42F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6C24C-F79D-0F48-8C66-1B6A1F655EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21600" activeTab="1" xr2:uid="{F188F32F-936C-7746-94B2-81166A817508}"/>
+    <workbookView xWindow="14960" yWindow="500" windowWidth="35840" windowHeight="21600" activeTab="1" xr2:uid="{F188F32F-936C-7746-94B2-81166A817508}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1557,9 @@
       <c r="J19" s="2">
         <v>13</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
@@ -1906,12 +1908,18 @@
       <c r="K26" s="2">
         <v>5</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
       <c r="M26" s="2">
         <v>1</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
       <c r="P26" s="2">
         <v>0</v>
       </c>
@@ -2450,10 +2458,18 @@
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
       <c r="P37" s="2">
         <v>0</v>
       </c>
